--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/64_Osmaniye_2021.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2021/64_Osmaniye_2021.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC111FC0-F1D7-4D7D-9A89-BD7AA47349E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E30B6D83-A34B-4E28-B16E-652B759C7817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{05B3EAFD-985E-48BC-AC87-D05AC7AAB4F6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="685" xr2:uid="{61CAE9C7-0A29-463E-9F16-9B1C97B7EF48}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -952,14 +952,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{6A0CC046-91E2-4D43-AD65-5798C0B0614F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{24898689-6E6E-42BB-8978-92AA09DF92E5}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{DDA1C051-B66F-4445-B335-06CA5EFCF58D}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{3DF2F343-2356-4181-B540-093523EB370F}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{2A3B1773-E50C-4569-B10D-153A9F1E6990}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{0B65982C-AAB0-4DCD-B6C3-64B89FE38384}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{EC4FC281-B3F5-41A5-9F98-618DECD0E46A}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{65CEF79C-B433-44A9-83E6-92644EAE6089}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{598D9355-AD61-4B52-9DD6-B22E3980B2C7}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{BC9E840A-1828-4D11-BD61-549F3D3228EA}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{8D6F53A7-DE29-4889-9ED5-09DF312FE6EE}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{B7D5B4B5-74AE-4351-ADC6-46E59812B27B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F9BE4E8D-0B4B-423C-94A8-41D2F80A2F74}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{14D28045-558E-48AE-9B27-5C963C4B375D}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{82CA617E-0EC4-43F4-924E-577C211DE32E}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{182EDB28-FA0F-4E00-9F96-3EE08EA9A4E9}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1329,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D789AB3D-EFB8-4279-896A-4EE47744A158}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB27E42-3435-4251-82A9-5231681B80A0}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2594,18 +2594,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{079BF7C3-879F-4858-ADC7-D1E861DB5137}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A0D8EFE-C408-4C57-AB57-B5149FE335A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{28C95251-D668-48D7-9085-B2F74B261647}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F691179B-DA97-463E-8052-DC50EBA4D073}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ED428471-4343-4991-8C6D-82E6DAA6CFA2}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{0BF06004-4680-49B7-AFDD-ACD214A897A6}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{65286A61-9441-4BCC-93DB-248F95E0B184}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EA85124B-F3D5-4ABF-8E01-FCFE974ECBDB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B93D199E-6227-4342-A763-0F510FB9D18F}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{DC357CB6-8C57-4542-BDDD-79DA61AC563A}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3D638AF2-6BEF-4289-8EE9-0F5178277F6F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6A0F7865-66F7-4815-BDBA-020322627E57}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BF580D53-9C59-485F-87D7-D2FC2E872A1E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{035DB83A-B0C9-45F6-9EE6-B6A4163D1183}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{64543EA6-BF3D-46A2-970A-03246417CC80}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF96CDB1-E97F-447C-81B6-408F82157C9F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FC75D272-5167-48DD-AE4B-6CAC29F7A506}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{E5ABB5EA-A7F3-4C20-8755-AEF57AE310F5}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{C20DECDD-D30D-4EAE-B9C7-2FA592AD6679}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82A84860-2721-4D9E-87F5-569951E7B2D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A56D324B-C246-4E94-B718-0E4CA502D33F}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{0108EFAC-223F-4B51-8335-99CA526442A2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CD7EEE1D-A6EC-4EB3-9A85-C2879F516C70}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C101DBA-2A52-4E02-A0A9-79C0DC629C79}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2618,7 +2618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2ED2BD5-3BF9-43DE-96F6-84DC2D496961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85994D64-7107-42D9-AC89-6382C423884F}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3915,18 +3915,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ACD4C650-25AE-482D-9FC1-1BCE7B12F138}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{20450AA5-40E6-47E2-88F7-98A656602110}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{763D6A43-8C1C-4912-8829-05685FD965D9}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EA50D774-9A22-41AE-8780-E36B57965E53}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2ECBDC68-47E1-4C29-B312-F30410FF1F32}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{55A54845-5A84-4049-B5C6-95E4D3233677}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45B3B264-E6C5-4BE6-AABB-56B5EC8BF397}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{52FF44CA-AF22-46B2-AF61-DE24C55025B1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{68B6387D-7BD1-4283-BB48-F80FC19A2BD1}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{EF41E06E-D594-46AC-A2E8-625214282E00}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94C979BA-A2A6-456C-AC7F-B293D1540C59}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CD05206E-9457-4873-9178-8794C284DED0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5D4425B1-05C9-444B-B8AC-250F56A2274E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{11D98CB9-A12D-4777-95F2-ABE33637FB67}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3DF4EE87-E4B4-4777-88E1-DE97D405CFDC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F5992858-89CB-4852-A4F2-6DE3B92CF798}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E8EEE20-D8E2-43DA-AED8-1A452E076F79}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{695F2EF6-93ED-4B90-A36D-9C20FABEFF3C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{826D2868-D2BB-418E-BFB3-1612038C1300}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FD916AFE-78C5-403C-9264-D866545AF7D6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26F9F4A7-A851-4E08-8284-1D8B379030AD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{55F9BA30-8E08-44CB-9E20-83F30B2AA9C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{19A71B8B-E00B-4790-A70F-4399A7C8496A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FE8E05A2-8CCD-44CE-B709-B60EFFD3E6F0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3939,7 +3939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C477959E-BC32-4B14-88E3-AB6674B1C845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F261CE2F-376F-4BC7-B678-E9649983809C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5232,18 +5232,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12A4BD6C-EC49-4444-A7A8-0F0ECBC23F5E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C87C500D-2A89-41BD-B009-AA2317BAA354}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{136EC75C-33CE-46C1-BB8F-608F98D728A3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{522968C1-308F-4B34-87D3-473DDF587C59}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6CFCFA1F-791D-41B7-974E-F54C89A5AD66}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{FFE9F0FB-0C70-403C-8D67-84E7770EE5B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9C718BC0-3A57-40F3-803E-B9062F590710}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12A4461B-13D7-4402-B0BC-DC1964AB0000}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5EA89C18-E935-4E73-8612-4153EF66F8F9}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{36AEB1E0-34A4-476E-BCBB-BBE7DD4986CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E3AE568-30CC-43AA-9DA9-E887925259FE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{210A7F7C-2245-486D-AB4C-E7BF228DA332}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADB5F863-34F1-4E38-9852-E7E75D0ABF7A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C39D078-E6B5-439A-9BC8-7F69E982E41F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{7831951F-E078-4928-BD8D-3B8FCFBEC732}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{9708F05D-D422-4BE1-BCD0-7E7058B4B6A5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{20129732-C7BC-4AAA-8B14-E8DCB8AAC52E}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{65133EB8-AEFF-4146-96AA-2DCD1AE5FC66}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C42E47BF-8263-4B2A-BCFC-0D5C60DB83F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9FC44910-8D0B-4332-9369-638CB8C17FEF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D679F9C-A83A-4D3E-A693-BFA4EEF034AD}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{628E49BF-F339-4BFE-B339-0A627BFBA80B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E4E94E2-B59F-4CFD-B435-4D3F6EBBE31C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{159EACFC-A49F-48A8-91C6-34F3B939C880}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5256,7 +5256,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8BB366-F252-4DCD-9D27-E36BD489EE2A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4615A13B-D9A9-4CD8-886C-4AF6A7C668A3}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F103"/>
   <sheetViews>
@@ -6540,18 +6540,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FA2DA298-A520-43C5-B431-90AA2569C241}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{586FE1EF-B333-41DF-9091-1A38D9834348}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2499DD4A-0C9C-4F2E-A38C-BF9C88A97DC3}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1BF5D03D-68D6-4790-BBE7-67E89BC879BD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F5DB91B0-F043-404D-B4F0-2072A87DC9ED}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{89212689-EA9E-4839-AAE4-4318EF5B95BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E9720E4-A7CC-4525-982F-D7FACE3B9E7A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6451E864-9843-4827-8D10-7A046E70B5C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B51414DE-77AD-4EFF-B210-A303E333CD32}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E5AFF592-AE13-4666-9CDB-FFEE5871E0CD}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8700C56C-382E-4C87-A844-E9EC2AE4A578}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9A7CFE9D-88E5-4C5E-B9CF-9838D6E76AF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8FAC83B2-D8D9-4E72-BE98-D29016C1366C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FDEA20A8-371F-46DB-B160-3E431AA65739}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66B50499-1C44-4169-8305-B142A873B206}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B57AF282-4A66-4282-A8C4-7E45D15FA8A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{906F056C-9A19-4D50-9127-78DDC1B5ABCF}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{29CA8D49-CD4C-4037-8A1F-6F64110D603E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{878A01AD-47C5-4214-BA38-80BB007FB94D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B9DEA49-D012-46AF-A2AA-A92EB18C2F1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EFEBEFBA-BA80-4CDF-95AA-4EB247E10856}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{D282EE76-AA4E-4B3C-865A-1D24E89C1D18}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A7CF54D9-95B2-4CAB-977B-CF8A4F4CB11D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4B377E5B-11D2-4056-8225-EA64B419D490}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6564,7 +6564,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65A392E-7B97-436E-A0A8-C724FC76CE80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE5A3F91-1EB1-4886-8D7E-452E239AEA4D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7831,18 +7831,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB9A76FA-82BB-4902-8E73-FA4FABCE951C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{324F352E-26DA-4CA5-BF51-C4ADAC2F566C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{12DF7415-D6E3-4339-8E75-6F63ADB01367}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{258E5880-FDB0-44FB-9AC8-CB7C8B4362BA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C2A7514-087A-4718-9623-4C8699DFE295}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{32E6FA70-E325-4B40-805F-E0C675535B6A}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{1CEEF0E3-40A0-4970-88F4-FAD49C6D0D1F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{FBDF7B85-672E-4904-BD6A-AB3DADF64E88}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96530999-AD43-4362-ADD7-AD64B31F863D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3D387E38-2B84-4F28-8049-FE4C57B17A21}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{16D9CC79-EA22-4D48-AD0B-F9A8B96A3802}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5AE80E31-EE74-4B11-9894-8863AD11D868}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9631866-32CC-4168-9B22-C3588771437A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A6E24705-CE15-4963-B11D-FCFBEE3644BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2A61B509-8604-40F4-A0F7-4761E74C7DD8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D8D9DC68-B2C8-470A-A7E8-E7F9A12A9C26}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6172AB98-E05D-413E-A6A1-3D6CD0FC9277}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{048BFA61-F1E2-4AB4-8F17-38AC9E75B17E}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{00CC752E-CB4E-4ECB-9176-A47255FA1939}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{93D5EAB8-0FC8-4530-809B-5F45B4485208}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{541A589A-61EB-43B0-9500-F24B6D89E252}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{79BDA5CF-6770-475B-93C6-498C7D362ADC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D2A48843-775F-4F3B-BEE5-ACD0220FE8A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E8930CDC-DEBB-48DE-B4F7-CB693ADA7A7E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7855,7 +7855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F3F244-97BE-4EF1-B226-11B2E552CFF9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613A9C72-87C7-4A51-8C10-8F131ED0FA27}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9122,18 +9122,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7D5C7836-A399-4766-960F-F1F98466571C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9D8F8AE4-B13D-45DE-A317-C66BC9B42445}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8984A029-75ED-47FF-913C-7570950590C8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8A2C69ED-A626-4DCC-B549-1411C463088F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5738F6A2-0103-4F2E-8367-EF954E49F521}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{7F3CBB2F-8702-446E-867D-9831DC62DFA1}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{ACD73A19-4643-4A3A-9E7F-0CA9EEA34A67}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E42BB5C0-5381-4999-AA8B-81509AE6DD69}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{75259767-E6F5-44F3-90D0-D424C6ABAD8D}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{B22634F7-5EA6-4E00-A7E7-9C9014C0D0C8}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51CBDEEF-88E5-4395-B937-D7B36FCC206E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{48971B25-9126-436E-8534-9F295DAF3A4C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{3A79B6F8-E7A4-4884-BFD7-801BDBA42E9E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3DBBC519-AB6C-458E-A448-F2CE433FD04D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4BD4187F-F37C-4C93-BBEF-4EFCB1CEBFBC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DE9E51F8-729E-4BBA-A170-D108C9F38FA1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{BF2244AE-CF38-41CA-8D32-BF9453108D73}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EB7C7591-A574-487E-B21B-AB680717C905}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{6C63C793-5D6F-403C-8FBD-D18872070A99}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C18EDBC-9464-4487-B880-BDF131E40FAB}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A072DCE5-5565-4984-8A48-82CFE8C459A9}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{27109599-EF5E-424F-8E17-5B00537F4DD5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8F47F54-7064-41A4-852E-E65B8E67AA2A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CE0BE8D5-8AD5-4744-BE77-0EBD12365F35}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9146,7 +9146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA6737FE-165D-4A43-B0A7-E7313114958F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7F4323-7387-4A93-BC51-73E5210361C1}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10409,18 +10409,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39200544-32B7-4705-9CED-0679A11A9F38}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DE5F7FAB-94E5-4836-B8AD-45AB8A1F165E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FE533E67-0BDA-4D8B-945D-D5527C0FFDBA}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BAE60778-A38A-424C-85D6-2EBB1C7D9F94}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2BBD603F-AF8A-4222-989A-1BEDD4A486D3}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D5960A2A-A9D6-4FCB-844E-BC212B255EC7}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{24D73878-EC34-4475-92C3-C0CD66241F88}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2C4DA221-49F8-4B57-BA45-C5FF02034892}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{40A51ECB-0453-4555-ACC2-687A74ED2C19}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{C10620EB-6080-4542-B81A-0169F185CE91}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1521FE11-C629-41AF-9566-6CE70A861866}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DF0CFF3-858F-46E4-8F75-A293D6B28067}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FD56B9C8-245D-4A53-A58A-96E711E86D84}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4B11CFEC-54D5-4C4F-B9C6-C704C109F668}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{71E123F2-C5A6-48E9-9DB0-94D0B0CABA89}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3039349C-4D8D-4516-9A03-B13ECBE4233A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{409851F3-ABDD-453F-AFF6-43298DBB33E2}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{DC24E175-DDE8-4BE4-A5B2-65CE096FEAC4}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{CCA022CF-608A-434C-A7B4-D87A09349866}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9902F450-EBEF-41C7-BA19-9E8E0DD417F9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{05B35C70-8E79-437E-BFE5-EA29C96C4926}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{6A743937-EE7E-4736-BBC9-3E4BA5591DBD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F07814EE-33A9-4558-BFD3-885DC96642E3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DFBFEB8D-FA85-4D4D-853E-10ED82CF7DF2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10433,7 +10433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFD8FDD-36D4-4B09-8C31-6CD772856ADD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A002B286-D8D0-4311-83BA-A88425E3F487}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11692,18 +11692,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9EBA1A3C-5E15-4EEA-9D58-7773DEB45711}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D1CD21BD-B4A4-4FAD-BBF7-3D819E3B0C24}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{31874CC9-B8A6-424B-A4A3-7AC1779FA37C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{248D7159-1882-47A4-A87C-D3768268DC1E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{53795FB2-D273-48F9-812A-85765807D401}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EC9A97F7-6B33-4DCB-ABE7-C67C1B49029C}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{47533E5F-9833-405A-8529-CFC47EE295B3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{97A854C9-698A-4D95-9F25-4D30B9F0C189}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{26D3F881-8FD5-45A1-B0E0-98F7E4649C78}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{37B7E916-A918-4319-8177-B8403B1E7E89}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1B7A19A1-1CC8-4E62-AF81-1D7680F9528C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2F785A27-C860-492C-993E-60277C2D903E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1B406513-4003-478C-A5B1-350B98E4EE9B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1EC166A3-AF62-4F5E-A5E0-6B5DD41CA22D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{33554EAA-38B3-4F67-BB6E-553340E0A92F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DAAD4023-D052-469E-BDB5-549D6FFE7927}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{344BD133-CF31-4DC7-A9B5-EA7B21DDFA48}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{3B6BD966-3D0A-4213-8CC5-02767F9D2C7F}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{03267E32-B53D-4704-895A-55910DBBD7FC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC9A5D45-FC05-4AB0-9C45-7766295AEB5F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B0F44B32-B7FA-4FA4-9C4D-CAC92E1498EB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{47763B9E-990A-461A-AE13-F738A29D1ECB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7F775D5E-EE50-45D5-886C-D9818CC68B58}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D906416-E494-4693-AD1A-6E1292711187}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11716,7 +11716,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99ECA1B6-D984-4CA6-9102-F48F105E44D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{340D208D-A80E-4AD6-A83B-B421A25B661C}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12967,18 +12967,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{555B757F-600E-4C40-8BAB-124352E07F53}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6E1CF75D-91D6-45C8-8085-D82D3B1D5736}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E73BF01A-73F5-4424-B011-986B63EE001E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{E087A75A-6836-441B-8B75-07792D7696DD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8335C5E8-1A7C-44A8-B768-F8F560626D7F}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{D5623A31-8F82-4437-8673-4911CB0B9C87}"/>
-    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{49577706-4F19-4780-8186-81E753AC54A2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70A37413-D073-4E39-B8FE-E8513FEB1279}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FD9A4DC9-150B-4FAC-9EAE-A6AB86172BE5}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{FD6F23C7-84A0-4384-AA34-6A2669819E3D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2C619AA6-B230-4229-BD66-B7FB36B99BD7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB8EFA68-5D4C-4D1A-9FB7-FB682777C9C6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E56B9D7D-325B-42A3-B22A-C73DD7E102AD}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4ADA76AB-0116-4708-81EF-4BC8B0D53459}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AF06C742-111F-4B52-81BA-55F05A95976E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CCCC0A4F-D3DF-4F79-A9F6-0222E9FCA47D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA760AB3-F27C-49E2-A14A-4BED5CF5E9C5}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{9D00A003-815F-4951-9170-CABFC14F9100}"/>
+    <hyperlink ref="C6" location="'TEMMUZ '!A1" display="TEMMUZ" xr:uid="{35331B15-63B5-4BA0-895B-72048A9D8BAA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3619AE24-2D5D-4BD7-8F9B-6830EE03EAD6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9989773C-3486-4402-9E47-364DCF12846D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{65056B63-F508-4CB0-8F33-7E78A37740A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7D3B726B-3963-447B-99CA-9EB706484CB6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7A27B66B-47E7-4513-A167-D85EAC38604D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12991,7 +12991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C6204D-4532-498A-B2F3-BA95D7D8A103}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D363B8A-E4B6-4BC3-B6A3-D345D8E88B96}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14294,18 +14294,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F716D47A-F30F-4FFF-A3AC-31638CD0B190}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A3F9D62B-64D0-4E1B-AF55-3193E4CF3281}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1169BF90-D8D4-46FD-88AF-2EF33F687C2A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B4CDC692-31DD-4BB8-924A-732880BAAFAA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5B3CF641-223A-4319-91F0-A0F11DB8BAAD}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{18605739-8153-4CBE-8B6D-949DB3C9BF98}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCBDB980-488B-45C3-B4F4-2FCD4E791B53}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B2BB1654-6F6C-4F0F-BAAC-FEBFDD31E73A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{648970A0-1DF3-4C54-887D-962C09B6EF4A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{5E4E7FD8-D169-4B59-A7C5-FA1196F49161}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{90119E63-98AC-40C5-B4DE-34FAADDD9393}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A491DB86-0038-4FEF-BCF6-A42A2B313048}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CABCF145-8F50-4946-9335-053BC5F63978}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EAD9F6D-5E05-4E7B-BAFC-A948EC57F0EF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{76BF13FE-4970-4433-B9EA-DA8472D8DB42}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F926AEA7-98AE-44E6-AD25-0E061A815B93}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C830C400-6B04-43C1-AACF-06B179C01B03}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{50022EF5-C9A8-41D9-9A38-78D951150028}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C6C6CA64-8E19-4615-85F8-7163582C3297}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{75A9C18E-9219-424D-8CA3-866ED7D90994}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0CAACCFC-53BD-476E-9459-0B9F000891AB}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{74963396-CC9C-406A-83A1-ED0464711840}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9667B84-DAD6-4675-AB2E-F3C36FDF87F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{949CB0F7-30A0-4B82-A3A3-AF14E17EB5E3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14318,7 +14318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54EA51D-DAA3-4DF4-8ED5-D77BFF257327}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A53629-8704-4CF4-86C3-361521945337}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15621,18 +15621,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AFACC478-3013-4911-8AE3-78DCA30979E4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E5904F66-E0EE-486E-AB68-975D25B3689E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{56427F63-5332-4FC6-9AFE-EA20811F497A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DA57D813-E280-48BB-BDBD-3894E84B0BD2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{50A4D44E-F3FB-4EAB-B5EF-1FE56F69DF0B}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{C1F99C2B-BD4A-42AF-8CA8-ECCBAB3CAB5D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{740D307F-C6D2-4F93-9AE4-540166074664}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5546AF72-2B28-4855-A3D9-C1171F20F809}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{914CA2CB-2E17-473D-B86B-311D2359111A}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{E4EC5A0F-5CEC-44CD-A8C6-CEC55FE5C396}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E83BC0C-9886-46D2-89BA-37458AF4D888}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C7A47917-F704-4F1E-91D6-3AF3B0ED1419}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E9CF5266-CD5C-4ED2-BA77-C38EAAFFA36D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{38767E3B-27EB-411A-9E7B-7275E89DF826}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B451203C-B5D7-48D3-BA61-EBEEF31115BA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{92C70A3E-DD26-4082-9184-9BDF4F852C32}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99FEC56E-7536-4386-979B-6DCE5543B67D}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{6F14FE0B-2CC3-4907-85E0-C58C5223DB14}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{8028CDDC-129D-4062-A8E6-7FBEC46226AC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{95535FCB-31E5-4141-9C6E-853F354CD091}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DCD13FB1-DD69-4DEB-A974-19F757BF926D}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{F630AE0B-4C0E-463C-965C-C3F020BB47F1}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5935F469-FCA5-4A17-98AD-20C15B9F78F7}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D97FDD6-6565-407C-9A71-1D92CAF1AE25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15645,7 +15645,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A43192-6F81-410A-B8BD-24F2AD45DC36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A35A806-69A0-422F-8051-A3D84E02CA4E}">
   <dimension ref="B2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16942,18 +16942,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0E90C8CE-F1B2-44FD-B8BD-ABEE2C51F651}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{725B7650-F642-415B-9220-9980A681779A}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1E6ACD6C-3D27-4797-BDAB-53993D3A46B8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{91AC8D1C-E071-4B97-9FCC-7DA3EADB35FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FF5781EC-A3ED-4C67-AEF7-B706023B29DC}"/>
-    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{EAB40BFD-238D-47B0-A8A1-509C4847F6AB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{27032BBF-D2D9-40FC-B3E3-2DE3818A65CE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED122045-A9C1-402E-8840-BFD76088D36F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{444E3666-3C00-4397-858B-F9DC9AAE23DD}"/>
-    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{3EB03231-591C-4DC1-9326-6DF762D3DB85}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E520AA28-E094-4B4F-A7EE-648C02C0B5A0}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2BE7BA61-2990-491F-A501-9CA4949DDA71}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D9030367-82EB-448F-BA5F-9330729D590F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A4C7F8DC-B3C3-4E2A-A247-3726D9C7ADD4}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6DE38054-91BB-4A4C-9EC8-F821F23EAA7E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{56F0176E-2521-4EF1-8D32-3D819D56EDB2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2C4A7EB0-175F-4D2A-B399-92E242F6A920}"/>
+    <hyperlink ref="E5" location="' HAZİRAN '!A1" display="HAZİRAN" xr:uid="{1F7166C2-33D1-4B26-89B9-2FA1386ECAA6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E6D8659-6EBB-43D2-A94F-345C7C8CAC07}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7120E9BA-3F14-4035-88AA-D958C731C68B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C837060A-B8A5-4ECE-A19B-D218612FEDF6}"/>
+    <hyperlink ref="C7" location="'EKİM '!A1" display="EKİM" xr:uid="{61D13CD1-838B-4D74-93CC-EBEF9A2ED89B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{94A90D8A-37A0-45C7-A377-7B602DEFA108}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DF31550B-3B8D-4323-86EE-3D2E593CF71B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
